--- a/intuses.xlsx
+++ b/intuses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Population</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Falkland Islands</t>
   </si>
   <si>
-    <t>99.02% (2016)</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>94.44% (2016)</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Niue</t>
   </si>
   <si>
-    <t>86.90% (2013)</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>Anguilla</t>
   </si>
   <si>
-    <t>81.57% (2016)</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -391,9 +379,6 @@
     <t>Montserrat</t>
   </si>
   <si>
-    <t>54.55% (2013)</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -460,9 +445,6 @@
     <t>Jersey</t>
   </si>
   <si>
-    <t>41.03% (2012)</t>
-  </si>
-  <si>
     <t>Ascension</t>
   </si>
   <si>
@@ -481,9 +463,6 @@
     <t>British Virgin Islands</t>
   </si>
   <si>
-    <t>37.60% (2012)</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -659,9 +638,6 @@
   </si>
   <si>
     <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>8.95% (2012)</t>
   </si>
   <si>
     <t>Republic of the Congo</t>
@@ -1539,7 +1515,7 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,10 +1527,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1582,8 +1558,8 @@
       <c r="D2" s="5">
         <v>211</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="E2" s="1">
+        <v>0.99019999999999997</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1591,7 +1567,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>76095</v>
@@ -1611,7 +1587,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>60349</v>
@@ -1631,7 +1607,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>329196</v>
@@ -1651,7 +1627,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>37201</v>
@@ -1671,7 +1647,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>4053797</v>
@@ -1691,7 +1667,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>570794</v>
@@ -1711,7 +1687,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <v>48097</v>
@@ -1731,7 +1707,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>102285</v>
@@ -1751,7 +1727,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
         <v>5567278</v>
@@ -1771,7 +1747,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>37553</v>
@@ -1791,7 +1767,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>5120225</v>
@@ -1811,7 +1787,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>9554907</v>
@@ -1831,7 +1807,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>2532059</v>
@@ -1851,7 +1827,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1431090</v>
@@ -1871,7 +1847,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
         <v>48484084</v>
@@ -1891,7 +1867,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>406705</v>
@@ -1911,7 +1887,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>8913217</v>
@@ -1931,7 +1907,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>62621016</v>
@@ -1951,7 +1927,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>32494</v>
@@ -1962,8 +1938,8 @@
       <c r="D21" s="5">
         <v>202</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
+      <c r="E21" s="1">
+        <v>0.94440000000000002</v>
       </c>
       <c r="F21" s="4">
         <v>20</v>
@@ -1971,7 +1947,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5">
         <v>7942864</v>
@@ -1991,7 +1967,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5">
         <v>15877494</v>
@@ -2011,7 +1987,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5">
         <v>21920626</v>
@@ -2031,7 +2007,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5">
         <v>33950632</v>
@@ -2051,7 +2027,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
         <v>115845120</v>
@@ -2071,7 +2047,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5">
         <v>4273353</v>
@@ -2091,7 +2067,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5">
         <v>6585678</v>
@@ -2111,7 +2087,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5">
         <v>1153786</v>
@@ -2131,7 +2107,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5">
         <v>7681957</v>
@@ -2151,7 +2127,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="5">
         <v>10021242</v>
@@ -2171,7 +2147,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5">
         <v>4831170</v>
@@ -2191,7 +2167,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5">
         <v>1034</v>
@@ -2202,8 +2178,8 @@
       <c r="D33" s="5">
         <v>214</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>38</v>
+      <c r="E33" s="1">
+        <v>0.86899999999999999</v>
       </c>
       <c r="F33" s="4">
         <v>32</v>
@@ -2211,7 +2187,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5">
         <v>21159515</v>
@@ -2231,7 +2207,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5">
         <v>336057</v>
@@ -2251,7 +2227,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5">
         <v>39215756</v>
@@ -2271,7 +2247,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5">
         <v>4024552</v>
@@ -2291,7 +2267,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>4821119</v>
@@ -2311,7 +2287,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5">
         <v>69304405</v>
@@ -2331,7 +2307,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5">
         <v>517789</v>
@@ -2351,7 +2327,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5">
         <v>14864456</v>
@@ -2371,7 +2347,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5">
         <v>27048861</v>
@@ -2391,7 +2367,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5">
         <v>226557</v>
@@ -2411,7 +2387,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="5">
         <v>233604</v>
@@ -2431,7 +2407,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5">
         <v>4446926</v>
@@ -2451,7 +2427,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5">
         <v>6788737</v>
@@ -2471,7 +2447,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5">
         <v>12043</v>
@@ -2482,8 +2458,8 @@
       <c r="D47" s="5">
         <v>207</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>53</v>
+      <c r="E47" s="1">
+        <v>0.81569999999999998</v>
       </c>
       <c r="F47" s="4">
         <v>46</v>
@@ -2491,7 +2467,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5">
         <v>1585471</v>
@@ -2511,7 +2487,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5">
         <v>49906</v>
@@ -2531,7 +2507,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5">
         <v>952369</v>
@@ -2551,7 +2527,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5">
         <v>44669</v>
@@ -2571,7 +2547,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5">
         <v>132221</v>
@@ -2591,7 +2567,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53" s="5">
         <v>52308536</v>
@@ -2611,7 +2587,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5">
         <v>3717818</v>
@@ -2631,7 +2607,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5">
         <v>25343685</v>
@@ -2651,7 +2627,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B56" s="5">
         <v>344970</v>
@@ -2671,7 +2647,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5">
         <v>7763795</v>
@@ -2691,7 +2667,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B58" s="5">
         <v>1640893</v>
@@ -2711,7 +2687,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B59" s="5">
         <v>8358728</v>
@@ -2731,7 +2707,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5">
         <v>4755187</v>
@@ -2751,7 +2727,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" s="5">
         <v>2243448</v>
@@ -2771,7 +2747,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62" s="5">
         <v>1058744</v>
@@ -2791,7 +2767,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" s="5">
         <v>7461297</v>
@@ -2811,7 +2787,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" s="5">
         <v>13913699</v>
@@ -2831,7 +2807,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="5">
         <v>1589659</v>
@@ -2851,7 +2827,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5">
         <v>3083783</v>
@@ -2871,7 +2847,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" s="5">
         <v>109446612</v>
@@ -2891,7 +2867,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5">
         <v>77529</v>
@@ -2911,7 +2887,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5">
         <v>29005924</v>
@@ -2931,7 +2907,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5">
         <v>33561876</v>
@@ -2951,7 +2927,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5">
         <v>244090854</v>
@@ -2971,7 +2947,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B72" s="5">
         <v>7048231</v>
@@ -2991,7 +2967,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B73" s="5">
         <v>7622142</v>
@@ -3011,7 +2987,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" s="5">
         <v>2664928</v>
@@ -3031,7 +3007,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B75" s="5">
         <v>205746</v>
@@ -3051,7 +3027,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B76" s="5">
         <v>2105339</v>
@@ -3071,7 +3047,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B77" s="5">
         <v>3511549</v>
@@ -3091,7 +3067,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B78" s="5">
         <v>448260</v>
@@ -3111,7 +3087,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5">
         <v>6182411</v>
@@ -3131,7 +3107,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B80" s="5">
         <v>7799565</v>
@@ -3151,7 +3127,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B81" s="5">
         <v>2043110</v>
@@ -3171,7 +3147,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B82" s="5">
         <v>51467</v>
@@ -3191,7 +3167,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5">
         <v>2437026</v>
@@ -3211,7 +3187,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B84" s="5">
         <v>39242</v>
@@ -3231,7 +3207,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B85" s="5">
         <v>2360269</v>
@@ -3251,7 +3227,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B86" s="5">
         <v>141206801</v>
@@ -3271,7 +3247,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B87" s="5">
         <v>2811056</v>
@@ -3291,7 +3267,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B88" s="5">
         <v>6480202</v>
@@ -3311,7 +3287,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B89" s="5">
         <v>72048</v>
@@ -3331,7 +3307,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B90" s="5">
         <v>3208312</v>
@@ -3351,7 +3327,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B91" s="5">
         <v>6997472</v>
@@ -3371,7 +3347,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B92" s="5">
         <v>52225879</v>
@@ -3391,7 +3367,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B93" s="5">
         <v>67535</v>
@@ -3411,7 +3387,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B94" s="5">
         <v>20564451</v>
@@ -3431,7 +3407,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B95" s="5">
         <v>82470752</v>
@@ -3451,7 +3427,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B96" s="5">
         <v>12545558</v>
@@ -3471,7 +3447,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B97" s="5">
         <v>4492326</v>
@@ -3491,7 +3467,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B98" s="5">
         <v>275717</v>
@@ -3511,7 +3487,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B99" s="5">
         <v>30548252</v>
@@ -3531,7 +3507,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B100" s="5">
         <v>22072765</v>
@@ -3551,7 +3527,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B101" s="5">
         <v>36387619</v>
@@ -3571,7 +3547,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B102" s="5">
         <v>4160340</v>
@@ -3591,7 +3567,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B103" s="5">
         <v>2366406</v>
@@ -3611,7 +3587,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B104" s="5">
         <v>49038556</v>
@@ -3631,7 +3607,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B105" s="5">
         <v>20100</v>
@@ -3651,7 +3627,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B106" s="5">
         <v>63003313</v>
@@ -3671,7 +3647,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B107" s="5">
         <v>63692</v>
@@ -3691,7 +3667,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5">
         <v>55677</v>
@@ -3711,7 +3687,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B109" s="5">
         <v>2371852</v>
@@ -3731,7 +3707,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B110" s="5">
         <v>9521056</v>
@@ -3751,7 +3727,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B111" s="5">
         <v>312315</v>
@@ -3771,7 +3747,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B112" s="5">
         <v>25260147</v>
@@ -3791,7 +3767,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B113" s="5">
         <v>6475</v>
@@ -3811,7 +3787,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B114" s="5">
         <v>31858027</v>
@@ -3831,7 +3807,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B115" s="5">
         <v>532849</v>
@@ -3851,7 +3827,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B116" s="5">
         <v>702911</v>
@@ -3871,7 +3847,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B117" s="5">
         <v>6400330</v>
@@ -3891,7 +3867,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B118" s="5">
         <v>2833</v>
@@ -3902,8 +3878,8 @@
       <c r="D118" s="5">
         <v>212</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>125</v>
+      <c r="E118" s="1">
+        <v>0.54549999999999998</v>
       </c>
       <c r="F118" s="4">
         <v>117</v>
@@ -3911,7 +3887,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B119" s="5">
         <v>765367947</v>
@@ -3931,7 +3907,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B120" s="5">
         <v>36513941</v>
@@ -3951,7 +3927,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B121" s="5">
         <v>16692456</v>
@@ -3971,7 +3947,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B122" s="5">
         <v>90889</v>
@@ -3991,7 +3967,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B123" s="5">
         <v>1019049</v>
@@ -4011,7 +3987,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B124" s="5">
         <v>452479</v>
@@ -4031,7 +4007,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B125" s="5">
         <v>47359575</v>
@@ -4051,7 +4027,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B126" s="5">
         <v>18892351</v>
@@ -4071,7 +4047,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B127" s="5">
         <v>5520</v>
@@ -4091,7 +4067,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B128" s="5">
         <v>5638956</v>
@@ -4111,7 +4087,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B129" s="5">
         <v>275785</v>
@@ -4131,7 +4107,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B130" s="5">
         <v>1409888</v>
@@ -4151,7 +4127,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B131" s="5">
         <v>15674241</v>
@@ -4171,7 +4147,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B132" s="5">
         <v>388541</v>
@@ -4191,7 +4167,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B133" s="5">
         <v>19704622</v>
@@ -4211,7 +4187,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B134" s="5">
         <v>176400</v>
@@ -4231,7 +4207,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B135" s="5">
         <v>43850141</v>
@@ -4251,7 +4227,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B136" s="5">
         <v>10650818</v>
@@ -4271,7 +4247,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B137" s="5">
         <v>4843916</v>
@@ -4291,7 +4267,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B138" s="5">
         <v>948977</v>
@@ -4311,7 +4287,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B139" s="5">
         <v>44558</v>
@@ -4331,7 +4307,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B140" s="5">
         <v>38958</v>
@@ -4342,8 +4318,8 @@
       <c r="D140" s="5">
         <v>198</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>148</v>
+      <c r="E140" s="1">
+        <v>0.4103</v>
       </c>
       <c r="F140" s="4">
         <v>139</v>
@@ -4351,7 +4327,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B141" s="5">
         <v>361</v>
@@ -4362,8 +4338,8 @@
       <c r="D141" s="5">
         <v>215</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>148</v>
+      <c r="E141" s="1">
+        <v>0.4103</v>
       </c>
       <c r="F141" s="4">
         <v>140</v>
@@ -4371,7 +4347,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B142" s="5">
         <v>6883796</v>
@@ -4391,7 +4367,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B143" s="5">
         <v>20560</v>
@@ -4411,7 +4387,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B144" s="5">
         <v>2309235</v>
@@ -4431,7 +4407,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B145" s="5">
         <v>10922179</v>
@@ -4451,7 +4427,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B146" s="5">
         <v>14456</v>
@@ -4462,8 +4438,8 @@
       <c r="D146" s="5">
         <v>206</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>155</v>
+      <c r="E146" s="1">
+        <v>0.376</v>
       </c>
       <c r="F146" s="4">
         <v>145</v>
@@ -4471,7 +4447,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B147" s="5">
         <v>2906</v>
@@ -4482,8 +4458,8 @@
       <c r="D147" s="5">
         <v>210</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>155</v>
+      <c r="E147" s="1">
+        <v>0.376</v>
       </c>
       <c r="F147" s="4">
         <v>146</v>
@@ -4491,7 +4467,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B148" s="5">
         <v>290375</v>
@@ -4511,7 +4487,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B149" s="5">
         <v>933450</v>
@@ -4531,7 +4507,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B150" s="5">
         <v>37257</v>
@@ -4551,7 +4527,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B151" s="5">
         <v>461347554</v>
@@ -4571,7 +4547,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B152" s="5">
         <v>6257430</v>
@@ -4591,7 +4567,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B153" s="5">
         <v>7121116</v>
@@ -4611,7 +4587,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B154" s="5">
         <v>5441827</v>
@@ -4631,7 +4607,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B155" s="5">
         <v>66023</v>
@@ -4651,7 +4627,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B156" s="5">
         <v>85242816</v>
@@ -4671,7 +4647,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B157" s="5">
         <v>2977793</v>
@@ -4691,7 +4667,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B158" s="5">
         <v>1993079</v>
@@ -4711,7 +4687,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B159" s="5">
         <v>12512639</v>
@@ -4731,7 +4707,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B160" s="5">
         <v>16374103</v>
@@ -4751,7 +4727,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B161" s="5">
         <v>414278</v>
@@ -4771,7 +4747,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B162" s="5">
         <v>61155</v>
@@ -4791,7 +4767,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B163" s="5">
         <v>665312</v>
@@ -4811,7 +4787,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B164" s="5">
         <v>4698108</v>
@@ -4831,7 +4807,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B165" s="5">
         <v>1732218</v>
@@ -4851,7 +4827,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B166" s="5">
         <v>4760715</v>
@@ -4871,7 +4847,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B167" s="5">
         <v>52837331</v>
@@ -4891,7 +4867,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B168" s="5">
         <v>356356</v>
@@ -4911,7 +4887,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B169" s="5">
         <v>4472992</v>
@@ -4931,7 +4907,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B170" s="5">
         <v>7548512</v>
@@ -4951,7 +4927,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B171" s="5">
         <v>332642</v>
@@ -4971,7 +4947,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B172" s="5">
         <v>71050</v>
@@ -4991,7 +4967,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B173" s="5">
         <v>1749517</v>
@@ -5011,7 +4987,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B174" s="5">
         <v>10162807</v>
@@ -5031,7 +5007,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B175" s="5">
         <v>729236</v>
@@ -5051,7 +5027,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B176" s="5">
         <v>5580465</v>
@@ -5071,7 +5047,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B177" s="5">
         <v>1959127</v>
@@ -5091,7 +5067,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B178" s="5">
         <v>2657770</v>
@@ -5111,7 +5087,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B179" s="5">
         <v>1387116</v>
@@ -5131,7 +5107,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B180" s="5">
         <v>6271270</v>
@@ -5151,7 +5127,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B181" s="5">
         <v>1223591</v>
@@ -5171,7 +5147,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B182" s="5">
         <v>919398</v>
@@ -5191,7 +5167,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B183" s="5">
         <v>6162217</v>
@@ -5211,7 +5187,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B184" s="5">
         <v>416753</v>
@@ -5231,7 +5207,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B185" s="5">
         <v>19543075</v>
@@ -5251,7 +5227,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B186" s="5">
         <v>29673489</v>
@@ -5271,7 +5247,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B187" s="5">
         <v>8861485</v>
@@ -5291,7 +5267,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B188" s="5">
         <v>9169603</v>
@@ -5311,7 +5287,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B189" s="5">
         <v>3047909</v>
@@ -5331,7 +5307,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B190" s="5">
         <v>30557175</v>
@@ -5351,7 +5327,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B191" s="5">
         <v>16971</v>
@@ -5371,7 +5347,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B192" s="5">
         <v>4271053</v>
@@ -5391,7 +5367,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B193" s="5">
         <v>1578008</v>
@@ -5411,7 +5387,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B194" s="5">
         <v>2566126</v>
@@ -5431,7 +5407,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B195" s="5">
         <v>1000575</v>
@@ -5451,7 +5427,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B196" s="5">
         <v>2358540</v>
@@ -5471,7 +5447,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B197" s="5">
         <v>963795</v>
@@ -5491,7 +5467,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B198" s="5">
         <v>1353986</v>
@@ -5511,7 +5487,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B199" s="5">
         <v>72872</v>
@@ -5531,7 +5507,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B200" s="5">
         <v>4068194</v>
@@ -5551,7 +5527,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B201" s="5">
         <v>1449758</v>
@@ -5571,7 +5547,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B202" s="5">
         <v>924955</v>
@@ -5591,7 +5567,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B203" s="5">
         <v>2194985</v>
@@ -5611,7 +5587,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B204" s="5">
         <v>2505948</v>
@@ -5631,7 +5607,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B205" s="5">
         <v>1383</v>
@@ -5642,8 +5618,8 @@
       <c r="D205" s="5">
         <v>213</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>215</v>
+      <c r="E205" s="1">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="F205" s="4">
         <v>204</v>
@@ -5651,7 +5627,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B206" s="5">
         <v>455055</v>
@@ -5671,7 +5647,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B207" s="5">
         <v>7011507</v>
@@ -5691,7 +5667,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B208" s="5">
         <v>69020</v>
@@ -5711,7 +5687,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B209" s="5">
         <v>1003542</v>
@@ -5731,7 +5707,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B210" s="5">
         <v>377607</v>
@@ -5751,7 +5727,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B211" s="5">
         <v>968500</v>
@@ -5771,7 +5747,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B212" s="5">
         <v>607311</v>
@@ -5791,7 +5767,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B213" s="5">
         <v>202204</v>
@@ -5811,7 +5787,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B214" s="5">
         <v>73148</v>
@@ -5831,7 +5807,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B215" s="5">
         <v>294851</v>
@@ -5851,7 +5827,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B216" s="5">
         <v>66402</v>
